--- a/Lab3/results.xlsx
+++ b/Lab3/results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Geometriska-Algoritmer\Lab3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addes\Documents\GitHub\Geometriska-Algoritmer\Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD292D41-38C2-465F-B4DE-EED854608AB3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37A6A4C-C751-4127-A000-54F75A5B06AB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{869B35A9-82E9-46D1-8AA0-2BCE9456542B}"/>
   </bookViews>
@@ -30,33 +30,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>10^5</t>
   </si>
   <si>
-    <t>30.49</t>
-  </si>
-  <si>
     <t>10^4</t>
   </si>
   <si>
     <t>10^2</t>
   </si>
   <si>
-    <t>10^3</t>
-  </si>
-  <si>
-    <t>22.66</t>
-  </si>
-  <si>
-    <t>7*10^5</t>
-  </si>
-  <si>
-    <t>0.203s/0</t>
-  </si>
-  <si>
     <t>rows=n, colums=k</t>
+  </si>
+  <si>
+    <t>10^6</t>
+  </si>
+  <si>
+    <t>69.58</t>
+  </si>
+  <si>
+    <t>741.36</t>
+  </si>
+  <si>
+    <t>429.80</t>
+  </si>
+  <si>
+    <t>376.55</t>
+  </si>
+  <si>
+    <t>36.86</t>
+  </si>
+  <si>
+    <t>0.375</t>
+  </si>
+  <si>
+    <t>3815.96</t>
+  </si>
+  <si>
+    <t>3003.53</t>
+  </si>
+  <si>
+    <t>RANGE QUERY</t>
+  </si>
+  <si>
+    <t>NUMBER OF POINTS IN RANGE</t>
+  </si>
+  <si>
+    <t>4520.32</t>
+  </si>
+  <si>
+    <t>8687.41</t>
+  </si>
+  <si>
+    <t>1054.55</t>
+  </si>
+  <si>
+    <t>6.35</t>
+  </si>
+  <si>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>0.30</t>
+  </si>
+  <si>
+    <t>11.21</t>
+  </si>
+  <si>
+    <t>1.04</t>
+  </si>
+  <si>
+    <t>1.03</t>
   </si>
 </sst>
 </file>
@@ -409,74 +463,165 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AACFCA8E-90B6-4771-94EE-8283F07D16E1}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Lab3/results.xlsx
+++ b/Lab3/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addes\Documents\GitHub\Geometriska-Algoritmer\Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37A6A4C-C751-4127-A000-54F75A5B06AB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E7EB7A-BC6A-464D-93D4-328B9499EAF9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{869B35A9-82E9-46D1-8AA0-2BCE9456542B}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>10^5</t>
   </si>
@@ -41,6 +41,9 @@
     <t>10^2</t>
   </si>
   <si>
+    <t>10^3</t>
+  </si>
+  <si>
     <t>rows=n, colums=k</t>
   </si>
   <si>
@@ -50,9 +53,6 @@
     <t>69.58</t>
   </si>
   <si>
-    <t>741.36</t>
-  </si>
-  <si>
     <t>429.80</t>
   </si>
   <si>
@@ -80,9 +80,6 @@
     <t>4520.32</t>
   </si>
   <si>
-    <t>8687.41</t>
-  </si>
-  <si>
     <t>1054.55</t>
   </si>
   <si>
@@ -111,6 +108,42 @@
   </si>
   <si>
     <t>1.03</t>
+  </si>
+  <si>
+    <t>0.227</t>
+  </si>
+  <si>
+    <t>1.33</t>
+  </si>
+  <si>
+    <t>12.06</t>
+  </si>
+  <si>
+    <t>95.211</t>
+  </si>
+  <si>
+    <t>1.39</t>
+  </si>
+  <si>
+    <t>9.40</t>
+  </si>
+  <si>
+    <t>16.66</t>
+  </si>
+  <si>
+    <t>110.10</t>
+  </si>
+  <si>
+    <t>245.58</t>
+  </si>
+  <si>
+    <t>3518.03</t>
+  </si>
+  <si>
+    <t>1695.60</t>
+  </si>
+  <si>
+    <t>718.71</t>
   </si>
 </sst>
 </file>
@@ -466,7 +499,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -481,11 +514,14 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
@@ -493,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -507,6 +543,17 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1</v>
@@ -514,8 +561,11 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -525,20 +575,26 @@
       <c r="C7" t="s">
         <v>8</v>
       </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
       <c r="E7" t="s">
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
       <c r="E8" t="s">
         <v>12</v>
       </c>
@@ -546,7 +602,7 @@
         <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -556,11 +612,14 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
       </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
       <c r="E12" t="s">
         <v>1</v>
       </c>
@@ -568,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -579,7 +638,18 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -587,10 +657,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -598,30 +671,36 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" t="s">
         <v>17</v>
       </c>
-      <c r="E18" t="s">
-        <v>18</v>
-      </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
